--- a/files/LISTA GENERAL SAMCOR.xlsx
+++ b/files/LISTA GENERAL SAMCOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelcornejo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\BuscadorPorMedidaJS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C5E2DC-04CD-D44E-A6A7-6B571EE349A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC2244D-5A4F-4B2C-A51A-0159901281C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{B4025CF3-0F63-1246-B3FD-9F1A958B1D15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4025CF3-0F63-1246-B3FD-9F1A958B1D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1551,19 +1551,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43C851A-6709-7C46-BAB9-24E28C89E289}">
   <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>194</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>198</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>199</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>205</v>
       </c>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>208</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>180</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>211</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>106</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>106</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>76</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>77</v>
       </c>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>77</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>220</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>81</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>107</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>82</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>82</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>82</v>
       </c>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>82</v>
       </c>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>108</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>85</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>85</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>85</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>109</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>109</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>109</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>109</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>59</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>86</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>86</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>86</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>110</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>230</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>87</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>87</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>234</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>61</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>111</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>111</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>240</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>62</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>243</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>243</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>114</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>244</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>245</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>246</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>115</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>115</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>115</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>115</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>115</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>115</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>249</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>96</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>117</v>
       </c>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>117</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>117</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>117</v>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>97</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>97</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>97</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>98</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>98</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>98</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>99</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>258</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>258</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>121</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>121</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>260</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>261</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>156</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>263</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>264</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>265</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>265</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>265</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>157</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>268</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>123</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>123</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>159</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>141</v>
       </c>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>272</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>273</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>124</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>124</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>125</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>142</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>142</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>277</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>144</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>144</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>126</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>279</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>279</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>279</v>
       </c>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>100</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>282</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>282</v>
       </c>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>282</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>282</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>282</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>129</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>129</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>288</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>290</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>102</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>130</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>130</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>189</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>189</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>294</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>296</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>296</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>299</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>300</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>301</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>145</v>
       </c>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>145</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>145</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>160</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>305</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>306</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>168</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>146</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>307</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>307</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>311</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>147</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>147</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>147</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>147</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>161</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>161</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>169</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>149</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>149</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>162</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>162</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>131</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>151</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>151</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>151</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>151</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>151</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>151</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>104</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>132</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>132</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>320</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>320</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>322</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>322</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>134</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>325</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>163</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>170</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>164</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>171</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>171</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>174</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>174</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>135</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>152</v>
       </c>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>328</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>328</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>328</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>328</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>136</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>136</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>329</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>329</v>
       </c>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>331</v>
       </c>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>331</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>331</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>105</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>105</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>333</v>
       </c>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>334</v>
       </c>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>335</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>336</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>337</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>338</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>339</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>339</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>340</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>341</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>342</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>344</v>
       </c>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>344</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>344</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>137</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>137</v>
       </c>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>137</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>137</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>347</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>350</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>350</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>350</v>
       </c>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>350</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>172</v>
       </c>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>172</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>175</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>173</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>352</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>353</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>354</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>354</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>355</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>166</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>166</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>166</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>166</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>153</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>153</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>357</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>357</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>155</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>155</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>155</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>359</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>359</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>360</v>
       </c>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>176</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>361</v>
       </c>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>361</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>177</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>191</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>362</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>363</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>364</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>365</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>183</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>183</v>
       </c>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>366</v>
       </c>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>367</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>8</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>369</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>12</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>12</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>184</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>185</v>
       </c>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>188</v>
       </c>
@@ -6622,98 +6622,98 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="2"/>
     </row>
-    <row r="320" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>

--- a/files/LISTA GENERAL SAMCOR.xlsx
+++ b/files/LISTA GENERAL SAMCOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F839BF8-45E0-413E-9DB9-76D2E48CA166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0914001-4F23-4AA2-AF72-39B4A9822500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="685">
   <si>
     <t>1457012ROADT01</t>
   </si>
@@ -2085,6 +2085,12 @@
   </si>
   <si>
     <t>X4</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/Nf82xjZ</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2181,6 +2187,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4566,10 +4573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7E8A9-DA65-5E44-83F0-9CA8370198F0}">
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4580,9 +4587,10 @@
     <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>676</v>
       </c>
@@ -4604,8 +4612,11 @@
       <c r="G1" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4623,8 +4634,9 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4644,8 +4656,9 @@
       <c r="G3" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4665,8 +4678,9 @@
       <c r="G4" s="3">
         <v>155000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4686,8 +4700,9 @@
       <c r="G5" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4709,8 +4724,9 @@
       <c r="G6" s="3">
         <v>125000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -4728,8 +4744,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -4749,8 +4766,9 @@
       <c r="G8" s="3">
         <v>140000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -4770,8 +4788,9 @@
       <c r="G9" s="3">
         <v>125000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -4791,8 +4810,9 @@
       <c r="G10" s="3">
         <v>125000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -4812,8 +4832,9 @@
       <c r="G11" s="3">
         <v>135000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -4833,8 +4854,9 @@
       <c r="G12" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -4854,8 +4876,9 @@
       <c r="G13" s="3">
         <v>190000</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -4875,8 +4898,9 @@
       <c r="G14" s="3">
         <v>140000</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -4896,8 +4920,9 @@
       <c r="G15" s="3">
         <v>135000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -4917,8 +4942,9 @@
       <c r="G16" s="3">
         <v>155000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -4936,8 +4962,9 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -4955,8 +4982,9 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -4974,8 +5002,9 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -4993,8 +5022,9 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -5014,8 +5044,9 @@
       <c r="G21" s="3">
         <v>175000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -5033,8 +5064,9 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -5050,8 +5082,9 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -5071,8 +5104,9 @@
       <c r="G24" s="3">
         <v>190000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -5092,8 +5126,9 @@
       <c r="G25" s="3">
         <v>190000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -5111,8 +5146,9 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -5130,8 +5166,9 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -5151,8 +5188,9 @@
       <c r="G28" s="3">
         <v>165000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
@@ -5172,8 +5210,9 @@
       <c r="G29" s="3">
         <v>185000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -5191,8 +5230,9 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -5210,8 +5250,9 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -5229,8 +5270,9 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -5248,8 +5290,9 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>95</v>
       </c>
@@ -5269,8 +5312,9 @@
       <c r="G34" s="3">
         <v>155000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -5292,8 +5336,9 @@
       <c r="G35" s="3">
         <v>155000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>100</v>
       </c>
@@ -5311,8 +5356,9 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -5332,8 +5378,11 @@
       <c r="G37" s="3">
         <v>265000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>106</v>
       </c>
@@ -5353,8 +5402,9 @@
       <c r="G38" s="3">
         <v>220000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -5374,8 +5424,9 @@
       <c r="G39" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -5395,8 +5446,9 @@
       <c r="G40" s="3">
         <v>180000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>114</v>
       </c>
@@ -5414,8 +5466,9 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -5433,8 +5486,9 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -5452,8 +5506,9 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -5473,8 +5528,9 @@
       <c r="G44" s="3">
         <v>160000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
@@ -5492,8 +5548,9 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>125</v>
       </c>
@@ -5513,8 +5570,9 @@
       <c r="G46" s="3">
         <v>175000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>128</v>
       </c>
@@ -5532,8 +5590,9 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>129</v>
       </c>
@@ -5551,8 +5610,9 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>131</v>
       </c>
@@ -5570,8 +5630,9 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>132</v>
       </c>
@@ -5593,8 +5654,9 @@
       <c r="G50" s="3">
         <v>170000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>136</v>
       </c>
@@ -5616,8 +5678,9 @@
       <c r="G51" s="3">
         <v>185000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -5635,8 +5698,9 @@
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
@@ -5656,8 +5720,9 @@
       <c r="G53" s="3">
         <v>265000</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>144</v>
       </c>
@@ -5677,8 +5742,9 @@
       <c r="G54" s="3">
         <v>155000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>146</v>
       </c>
@@ -5696,8 +5762,9 @@
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
@@ -5717,8 +5784,9 @@
       <c r="G56" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -5738,8 +5806,9 @@
       <c r="G57" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
@@ -5757,8 +5826,9 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>158</v>
       </c>
@@ -5778,8 +5848,9 @@
       <c r="G59" s="3">
         <v>190000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -5799,8 +5870,9 @@
       <c r="G60" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>162</v>
       </c>
@@ -5820,8 +5892,9 @@
       <c r="G61" s="3">
         <v>175000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>164</v>
       </c>
@@ -5839,8 +5912,9 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>165</v>
       </c>
@@ -5862,8 +5936,9 @@
       <c r="G63" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>167</v>
       </c>
@@ -5883,8 +5958,9 @@
       <c r="G64" s="3">
         <v>215000</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>169</v>
       </c>
@@ -5902,8 +5978,9 @@
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>171</v>
       </c>
@@ -5923,8 +6000,9 @@
       <c r="G66" s="3">
         <v>175000</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>173</v>
       </c>
@@ -5944,8 +6022,9 @@
       <c r="G67" s="3">
         <v>215000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>174</v>
       </c>
@@ -5965,8 +6044,9 @@
       <c r="G68" s="3">
         <v>215000</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -5986,8 +6066,9 @@
       <c r="G69" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>176</v>
       </c>
@@ -6007,8 +6088,9 @@
       <c r="G70" s="3">
         <v>215000</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>178</v>
       </c>
@@ -6028,8 +6110,9 @@
       <c r="G71" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -6049,8 +6132,9 @@
       <c r="G72" s="3">
         <v>180000</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>181</v>
       </c>
@@ -6070,8 +6154,9 @@
       <c r="G73" s="3">
         <v>170000</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>183</v>
       </c>
@@ -6089,8 +6174,9 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>184</v>
       </c>
@@ -6110,8 +6196,9 @@
       <c r="G75" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -6131,8 +6218,9 @@
       <c r="G76" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>190</v>
       </c>
@@ -6152,8 +6240,9 @@
       <c r="G77" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>192</v>
       </c>
@@ -6171,8 +6260,9 @@
         <v>140000</v>
       </c>
       <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>196</v>
       </c>
@@ -6192,8 +6282,9 @@
       <c r="G79" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>198</v>
       </c>
@@ -6213,8 +6304,9 @@
       <c r="G80" s="3">
         <v>175000</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>199</v>
       </c>
@@ -6232,8 +6324,9 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -6251,8 +6344,9 @@
       <c r="G82" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -6270,8 +6364,9 @@
       <c r="G83" s="3">
         <v>340000</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>206</v>
       </c>
@@ -6291,8 +6386,9 @@
       <c r="G84" s="3">
         <v>185000</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>208</v>
       </c>
@@ -6312,8 +6408,9 @@
       <c r="G85" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>211</v>
       </c>
@@ -6333,8 +6430,9 @@
       <c r="G86" s="3">
         <v>420000</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -6354,8 +6452,9 @@
       <c r="G87" s="3">
         <v>420000</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>217</v>
       </c>
@@ -6375,8 +6474,9 @@
       <c r="G88" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -6396,8 +6496,9 @@
       <c r="G89" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>223</v>
       </c>
@@ -6417,8 +6518,9 @@
       <c r="G90" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>227</v>
       </c>
@@ -6438,8 +6540,9 @@
       <c r="G91" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>229</v>
       </c>
@@ -6459,8 +6562,9 @@
       <c r="G92" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>230</v>
       </c>
@@ -6480,8 +6584,9 @@
       <c r="G93" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>232</v>
       </c>
@@ -6501,8 +6606,9 @@
       <c r="G94" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>234</v>
       </c>
@@ -6524,8 +6630,9 @@
       <c r="G95" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>236</v>
       </c>
@@ -6545,8 +6652,9 @@
       <c r="G96" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>238</v>
       </c>
@@ -6568,8 +6676,9 @@
       <c r="G97" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>240</v>
       </c>
@@ -6589,8 +6698,9 @@
       <c r="G98" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>242</v>
       </c>
@@ -6610,8 +6720,9 @@
       <c r="G99" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
@@ -6631,8 +6742,9 @@
       <c r="G100" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>248</v>
       </c>
@@ -6650,8 +6762,9 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -6669,8 +6782,9 @@
         <v>170000</v>
       </c>
       <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>253</v>
       </c>
@@ -6690,8 +6804,9 @@
       <c r="G103" s="3">
         <v>360000</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>256</v>
       </c>
@@ -6711,8 +6826,9 @@
       <c r="G104" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>259</v>
       </c>
@@ -6732,8 +6848,9 @@
       <c r="G105" s="3">
         <v>360000</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>260</v>
       </c>
@@ -6753,8 +6870,9 @@
       <c r="G106" s="3">
         <v>240000</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>262</v>
       </c>
@@ -6774,8 +6892,9 @@
       <c r="G107" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -6793,8 +6912,9 @@
       <c r="G108" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>266</v>
       </c>
@@ -6814,8 +6934,9 @@
       <c r="G109" s="3">
         <v>280000</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>268</v>
       </c>
@@ -6835,8 +6956,9 @@
       <c r="G110" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>270</v>
       </c>
@@ -6854,8 +6976,9 @@
         <v>130000</v>
       </c>
       <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>272</v>
       </c>
@@ -6875,8 +6998,9 @@
       <c r="G112" s="3">
         <v>200000</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>274</v>
       </c>
@@ -6896,8 +7020,9 @@
       <c r="G113" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>275</v>
       </c>
@@ -6917,8 +7042,9 @@
       <c r="G114" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>277</v>
       </c>
@@ -6936,8 +7062,9 @@
         <v>180000</v>
       </c>
       <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>279</v>
       </c>
@@ -6957,8 +7084,9 @@
       <c r="G116" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>281</v>
       </c>
@@ -6978,8 +7106,9 @@
       <c r="G117" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>285</v>
       </c>
@@ -6999,8 +7128,9 @@
       <c r="G118" s="3">
         <v>220000</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>286</v>
       </c>
@@ -7020,8 +7150,9 @@
       <c r="G119" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>287</v>
       </c>
@@ -7041,8 +7172,9 @@
       <c r="G120" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>289</v>
       </c>
@@ -7060,8 +7192,9 @@
       <c r="G121" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>293</v>
       </c>
@@ -7077,8 +7210,9 @@
         <v>180000</v>
       </c>
       <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>294</v>
       </c>
@@ -7096,8 +7230,9 @@
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>296</v>
       </c>
@@ -7117,8 +7252,9 @@
       <c r="G124" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>297</v>
       </c>
@@ -7138,8 +7274,9 @@
       <c r="G125" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>299</v>
       </c>
@@ -7157,8 +7294,9 @@
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>301</v>
       </c>
@@ -7178,8 +7316,9 @@
       <c r="G127" s="3">
         <v>240000</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>303</v>
       </c>
@@ -7199,8 +7338,9 @@
       <c r="G128" s="3">
         <v>210000</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>305</v>
       </c>
@@ -7220,8 +7360,9 @@
       <c r="G129" s="3">
         <v>215000</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>307</v>
       </c>
@@ -7241,8 +7382,9 @@
       <c r="G130" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>308</v>
       </c>
@@ -7262,8 +7404,9 @@
       <c r="G131" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>310</v>
       </c>
@@ -7283,8 +7426,9 @@
       <c r="G132" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>312</v>
       </c>
@@ -7302,8 +7446,9 @@
         <v>260000</v>
       </c>
       <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>314</v>
       </c>
@@ -7325,8 +7470,9 @@
       <c r="G134" s="3">
         <v>235000</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>317</v>
       </c>
@@ -7346,8 +7492,9 @@
       <c r="G135" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>319</v>
       </c>
@@ -7367,8 +7514,9 @@
       <c r="G136" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>322</v>
       </c>
@@ -7388,8 +7536,9 @@
       <c r="G137" s="3">
         <v>240000</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>324</v>
       </c>
@@ -7409,8 +7558,9 @@
       <c r="G138" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>327</v>
       </c>
@@ -7430,8 +7580,9 @@
       <c r="G139" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>328</v>
       </c>
@@ -7451,8 +7602,9 @@
       <c r="G140" s="3">
         <v>650000</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>331</v>
       </c>
@@ -7470,8 +7622,9 @@
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>333</v>
       </c>
@@ -7491,8 +7644,9 @@
       <c r="G142" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>336</v>
       </c>
@@ -7512,8 +7666,9 @@
       <c r="G143" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>339</v>
       </c>
@@ -7533,8 +7688,9 @@
       <c r="G144" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>340</v>
       </c>
@@ -7554,8 +7710,9 @@
       <c r="G145" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>342</v>
       </c>
@@ -7575,8 +7732,9 @@
       <c r="G146" s="3">
         <v>260000</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>345</v>
       </c>
@@ -7596,8 +7754,9 @@
       <c r="G147" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -7617,8 +7776,9 @@
       <c r="G148" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>349</v>
       </c>
@@ -7640,8 +7800,9 @@
       <c r="G149" s="3">
         <v>340000</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>351</v>
       </c>
@@ -7661,8 +7822,9 @@
       <c r="G150" s="3">
         <v>240000</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>353</v>
       </c>
@@ -7682,8 +7844,9 @@
       <c r="G151" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>356</v>
       </c>
@@ -7703,8 +7866,9 @@
         <v>357</v>
       </c>
       <c r="G152" s="2"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>358</v>
       </c>
@@ -7724,8 +7888,9 @@
       <c r="G153" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>360</v>
       </c>
@@ -7745,8 +7910,9 @@
       <c r="G154" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>363</v>
       </c>
@@ -7766,8 +7932,9 @@
       <c r="G155" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>365</v>
       </c>
@@ -7787,8 +7954,9 @@
       <c r="G156" s="3">
         <v>280000</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>367</v>
       </c>
@@ -7810,8 +7978,9 @@
       <c r="G157" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>369</v>
       </c>
@@ -7829,8 +7998,9 @@
         <v>230000</v>
       </c>
       <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>372</v>
       </c>
@@ -7848,8 +8018,9 @@
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>373</v>
       </c>
@@ -7869,8 +8040,9 @@
       <c r="G160" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>376</v>
       </c>
@@ -7890,8 +8062,9 @@
       <c r="G161" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>378</v>
       </c>
@@ -7911,8 +8084,9 @@
       <c r="G162" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>381</v>
       </c>
@@ -7932,8 +8106,9 @@
       <c r="G163" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>384</v>
       </c>
@@ -7953,8 +8128,9 @@
       <c r="G164" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>385</v>
       </c>
@@ -7974,8 +8150,9 @@
       <c r="G165" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>390</v>
       </c>
@@ -7995,8 +8172,9 @@
       <c r="G166" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>392</v>
       </c>
@@ -8016,8 +8194,9 @@
       <c r="G167" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>395</v>
       </c>
@@ -8037,8 +8216,9 @@
       <c r="G168" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>398</v>
       </c>
@@ -8058,8 +8238,9 @@
       <c r="G169" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>400</v>
       </c>
@@ -8079,8 +8260,9 @@
       <c r="G170" s="3">
         <v>260000</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>402</v>
       </c>
@@ -8100,8 +8282,9 @@
       <c r="G171" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>404</v>
       </c>
@@ -8121,8 +8304,9 @@
       <c r="G172" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>406</v>
       </c>
@@ -8140,8 +8324,9 @@
         <v>200000</v>
       </c>
       <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>409</v>
       </c>
@@ -8161,8 +8346,9 @@
       <c r="G174" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>411</v>
       </c>
@@ -8182,8 +8368,9 @@
       <c r="G175" s="3">
         <v>420000</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>413</v>
       </c>
@@ -8203,8 +8390,9 @@
       <c r="G176" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>416</v>
       </c>
@@ -8224,8 +8412,9 @@
       <c r="G177" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>417</v>
       </c>
@@ -8245,8 +8434,9 @@
       <c r="G178" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>419</v>
       </c>
@@ -8266,8 +8456,9 @@
       <c r="G179" s="3">
         <v>360000</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>421</v>
       </c>
@@ -8289,8 +8480,9 @@
       <c r="G180" s="3">
         <v>520000</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>423</v>
       </c>
@@ -8310,8 +8502,9 @@
       <c r="G181" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>425</v>
       </c>
@@ -8331,8 +8524,9 @@
       <c r="G182" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>429</v>
       </c>
@@ -8352,8 +8546,9 @@
       <c r="G183" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>430</v>
       </c>
@@ -8373,8 +8568,9 @@
       <c r="G184" s="3">
         <v>260000</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>432</v>
       </c>
@@ -8394,8 +8590,9 @@
       <c r="G185" s="3">
         <v>280000</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>434</v>
       </c>
@@ -8413,8 +8610,9 @@
       <c r="G186" s="3">
         <v>650000</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>436</v>
       </c>
@@ -8432,8 +8630,9 @@
       <c r="G187" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>438</v>
       </c>
@@ -8451,8 +8650,9 @@
         <v>200000</v>
       </c>
       <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>440</v>
       </c>
@@ -8472,8 +8672,9 @@
       <c r="G189" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>442</v>
       </c>
@@ -8491,8 +8692,9 @@
         <v>300000</v>
       </c>
       <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>444</v>
       </c>
@@ -8512,8 +8714,9 @@
       <c r="G191" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>445</v>
       </c>
@@ -8533,8 +8736,9 @@
       <c r="G192" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>447</v>
       </c>
@@ -8554,8 +8758,9 @@
       <c r="G193" s="3">
         <v>340000</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>450</v>
       </c>
@@ -8575,8 +8780,9 @@
       <c r="G194" s="3">
         <v>280000</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>452</v>
       </c>
@@ -8598,8 +8804,9 @@
       <c r="G195" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>454</v>
       </c>
@@ -8619,8 +8826,9 @@
       <c r="G196" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>456</v>
       </c>
@@ -8638,8 +8846,9 @@
       <c r="G197" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>459</v>
       </c>
@@ -8659,8 +8868,9 @@
       <c r="G198" s="3">
         <v>340000</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>461</v>
       </c>
@@ -8680,8 +8890,9 @@
       <c r="G199" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>463</v>
       </c>
@@ -8701,8 +8912,9 @@
       <c r="G200" s="3">
         <v>280000</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>465</v>
       </c>
@@ -8722,8 +8934,9 @@
       <c r="G201" s="3">
         <v>330000</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>466</v>
       </c>
@@ -8741,8 +8954,9 @@
       <c r="G202" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>468</v>
       </c>
@@ -8762,8 +8976,9 @@
       <c r="G203" s="3">
         <v>330000</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>470</v>
       </c>
@@ -8781,8 +8996,9 @@
       <c r="G204" s="3">
         <v>480000</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>471</v>
       </c>
@@ -8802,8 +9018,9 @@
       <c r="G205" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>473</v>
       </c>
@@ -8823,8 +9040,9 @@
       <c r="G206" s="3">
         <v>290000</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>476</v>
       </c>
@@ -8844,8 +9062,9 @@
       <c r="G207" s="3">
         <v>330000</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>478</v>
       </c>
@@ -8865,8 +9084,9 @@
       <c r="G208" s="3">
         <v>260000</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>480</v>
       </c>
@@ -8886,8 +9106,9 @@
       <c r="G209" s="3">
         <v>480000</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>482</v>
       </c>
@@ -8905,8 +9126,9 @@
       <c r="G210" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>486</v>
       </c>
@@ -8926,8 +9148,9 @@
       <c r="G211" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>488</v>
       </c>
@@ -8949,8 +9172,9 @@
       <c r="G212" s="3">
         <v>270000</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" s="2"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>490</v>
       </c>
@@ -8970,8 +9194,9 @@
       <c r="G213" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" s="2"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>492</v>
       </c>
@@ -8991,8 +9216,9 @@
       <c r="G214" s="3">
         <v>420000</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>494</v>
       </c>
@@ -9012,8 +9238,9 @@
       <c r="G215" s="3">
         <v>320000</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" s="2"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>496</v>
       </c>
@@ -9031,8 +9258,9 @@
       <c r="G216" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" s="2"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>498</v>
       </c>
@@ -9052,8 +9280,9 @@
       <c r="G217" s="3">
         <v>420000</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>499</v>
       </c>
@@ -9073,8 +9302,9 @@
       <c r="G218" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>501</v>
       </c>
@@ -9092,8 +9322,9 @@
       <c r="G219" s="3">
         <v>700000</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>503</v>
       </c>
@@ -9113,8 +9344,9 @@
       <c r="G220" s="3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>505</v>
       </c>
@@ -9132,8 +9364,9 @@
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>507</v>
       </c>
@@ -9151,8 +9384,9 @@
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>509</v>
       </c>
@@ -9172,8 +9406,9 @@
       <c r="G223" s="3">
         <v>340000</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>511</v>
       </c>
@@ -9193,8 +9428,9 @@
       <c r="G224" s="3">
         <v>550000</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>512</v>
       </c>
@@ -9212,8 +9448,9 @@
       <c r="G225" s="3">
         <v>550000</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" s="2"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>513</v>
       </c>
@@ -9233,8 +9470,9 @@
       <c r="G226" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" s="2"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>514</v>
       </c>
@@ -9254,8 +9492,9 @@
       <c r="G227" s="3">
         <v>340000</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" s="2"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>516</v>
       </c>
@@ -9275,8 +9514,9 @@
       <c r="G228" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>518</v>
       </c>
@@ -9294,8 +9534,9 @@
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="2"/>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" s="2"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>519</v>
       </c>
@@ -9313,8 +9554,9 @@
       <c r="G230" s="3">
         <v>550000</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" s="2"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>520</v>
       </c>
@@ -9332,8 +9574,9 @@
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="2"/>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" s="2"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>522</v>
       </c>
@@ -9353,8 +9596,9 @@
       <c r="G232" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" s="2"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>524</v>
       </c>
@@ -9374,8 +9618,9 @@
       <c r="G233" s="3">
         <v>390000</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" s="2"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>525</v>
       </c>
@@ -9395,8 +9640,9 @@
       <c r="G234" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" s="2"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>527</v>
       </c>
@@ -9414,8 +9660,9 @@
         <v>200000</v>
       </c>
       <c r="G235" s="2"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" s="2"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>529</v>
       </c>
@@ -9433,8 +9680,9 @@
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="2"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>531</v>
       </c>
@@ -9452,8 +9700,9 @@
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="2"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>533</v>
       </c>
@@ -9473,8 +9722,9 @@
       <c r="G238" s="3">
         <v>300000</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>535</v>
       </c>
@@ -9494,8 +9744,9 @@
       <c r="G239" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>537</v>
       </c>
@@ -9515,8 +9766,9 @@
       <c r="G240" s="3">
         <v>540000</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" s="2"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>539</v>
       </c>
@@ -9536,8 +9788,9 @@
       <c r="G241" s="3">
         <v>460000</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" s="2"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>541</v>
       </c>
@@ -9557,8 +9810,9 @@
       <c r="G242" s="3">
         <v>330000</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" s="2"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>543</v>
       </c>
@@ -9580,8 +9834,9 @@
       <c r="G243" s="3">
         <v>520000</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" s="2"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>545</v>
       </c>
@@ -9601,8 +9856,9 @@
       <c r="G244" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" s="2"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>547</v>
       </c>
@@ -9620,8 +9876,9 @@
       <c r="G245" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" s="2"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>549</v>
       </c>
@@ -9639,8 +9896,9 @@
       <c r="G246" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" s="2"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>552</v>
       </c>
@@ -9658,8 +9916,9 @@
         <v>240000</v>
       </c>
       <c r="G247" s="2"/>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" s="2"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>555</v>
       </c>
@@ -9679,8 +9938,9 @@
       <c r="G248" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" s="2"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>556</v>
       </c>
@@ -9700,8 +9960,9 @@
       <c r="G249" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" s="2"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>557</v>
       </c>
@@ -9719,8 +9980,9 @@
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>558</v>
       </c>
@@ -9740,8 +10002,9 @@
       <c r="G251" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>561</v>
       </c>
@@ -9759,8 +10022,9 @@
         <v>170000</v>
       </c>
       <c r="G252" s="2"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>563</v>
       </c>
@@ -9780,8 +10044,9 @@
       <c r="G253" s="3">
         <v>390000</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>564</v>
       </c>
@@ -9801,8 +10066,9 @@
       <c r="G254" s="3">
         <v>280000</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254" s="2"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>568</v>
       </c>
@@ -9820,8 +10086,9 @@
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="2"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>570</v>
       </c>
@@ -9841,8 +10108,9 @@
       <c r="G256" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" s="2"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>571</v>
       </c>
@@ -9864,8 +10132,9 @@
       <c r="G257" s="3">
         <v>480000</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" s="2"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>572</v>
       </c>
@@ -9883,8 +10152,9 @@
         <v>250000</v>
       </c>
       <c r="G258" s="3"/>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" s="2"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>573</v>
       </c>
@@ -9904,8 +10174,9 @@
       <c r="G259" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" s="2"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>575</v>
       </c>
@@ -9923,8 +10194,9 @@
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" s="2"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>577</v>
       </c>
@@ -9942,8 +10214,9 @@
       <c r="G261" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" s="2"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>578</v>
       </c>
@@ -9963,8 +10236,9 @@
       <c r="G262" s="3">
         <v>450000</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" s="2"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>580</v>
       </c>
@@ -9982,8 +10256,9 @@
       <c r="G263" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>581</v>
       </c>
@@ -10003,8 +10278,9 @@
       <c r="G264" s="3">
         <v>380000</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>583</v>
       </c>
@@ -10022,8 +10298,9 @@
       <c r="G265" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>585</v>
       </c>
@@ -10041,8 +10318,9 @@
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>587</v>
       </c>
@@ -10062,8 +10340,9 @@
       <c r="G267" s="3">
         <v>350000</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" s="2"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>590</v>
       </c>
@@ -10083,8 +10362,9 @@
       <c r="G268" s="3">
         <v>410000</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" s="2"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>591</v>
       </c>
@@ -10102,8 +10382,9 @@
       <c r="G269" s="3">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" s="2"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>594</v>
       </c>
@@ -10123,8 +10404,9 @@
       <c r="G270" s="3">
         <v>470000</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" s="2"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>596</v>
       </c>
@@ -10144,8 +10426,9 @@
       <c r="G271" s="3">
         <v>580000</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271" s="2"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>598</v>
       </c>
@@ -10165,8 +10448,9 @@
       <c r="G272" s="3">
         <v>700000</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" s="2"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>599</v>
       </c>
@@ -10186,8 +10470,9 @@
       <c r="G273" s="3">
         <v>700000</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" s="2"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>601</v>
       </c>
@@ -10207,8 +10492,9 @@
       <c r="G274" s="3">
         <v>470000</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" s="2"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>603</v>
       </c>
@@ -10228,8 +10514,9 @@
       <c r="G275" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" s="2"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>604</v>
       </c>
@@ -10249,8 +10536,9 @@
       <c r="G276" s="3">
         <v>800000</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" s="2"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>606</v>
       </c>
@@ -10266,8 +10554,9 @@
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" s="2"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>607</v>
       </c>
@@ -10283,8 +10572,9 @@
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" s="2"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>609</v>
       </c>
@@ -10306,8 +10596,9 @@
       <c r="G279" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" s="2"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>612</v>
       </c>
@@ -10327,8 +10618,9 @@
       <c r="G280" s="3">
         <v>430000</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" s="2"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>613</v>
       </c>
@@ -10348,8 +10640,9 @@
       <c r="G281" s="3">
         <v>540000</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" s="2"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>615</v>
       </c>
@@ -10369,8 +10662,9 @@
       <c r="G282" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" s="2"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>616</v>
       </c>
@@ -10390,8 +10684,9 @@
       <c r="G283" s="3">
         <v>430000</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" s="2"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>618</v>
       </c>
@@ -10411,8 +10706,9 @@
       <c r="G284" s="3">
         <v>480000</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" s="2"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>620</v>
       </c>
@@ -10432,8 +10728,9 @@
       <c r="G285" s="3">
         <v>600000</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" s="2"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>621</v>
       </c>
@@ -10451,8 +10748,9 @@
         <v>140000</v>
       </c>
       <c r="G286" s="2"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" s="2"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>623</v>
       </c>
@@ -10472,8 +10770,9 @@
       <c r="G287" s="3">
         <v>460000</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" s="2"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>625</v>
       </c>
@@ -10491,8 +10790,9 @@
         <v>450000</v>
       </c>
       <c r="G288" s="2"/>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" s="2"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>627</v>
       </c>
@@ -10512,8 +10812,9 @@
       <c r="G289" s="3">
         <v>500000</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" s="2"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>628</v>
       </c>
@@ -10533,8 +10834,9 @@
       <c r="G290" s="3">
         <v>580000</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" s="2"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>630</v>
       </c>
@@ -10552,8 +10854,9 @@
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" s="2"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>631</v>
       </c>
@@ -10573,8 +10876,9 @@
       <c r="G292" s="3">
         <v>750000</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" s="2"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>633</v>
       </c>
@@ -10594,8 +10898,9 @@
       <c r="G293" s="3">
         <v>600000</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" s="2"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>635</v>
       </c>
@@ -10615,8 +10920,9 @@
       <c r="G294" s="3">
         <v>600000</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" s="2"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>637</v>
       </c>
@@ -10636,8 +10942,9 @@
       <c r="G295" s="3">
         <v>600000</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" s="2"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>639</v>
       </c>
@@ -10657,8 +10964,9 @@
       <c r="G296" s="3">
         <v>600000</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" s="2"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>641</v>
       </c>
@@ -10676,8 +10984,9 @@
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" s="2"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>644</v>
       </c>
@@ -10695,8 +11004,9 @@
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" s="2"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>648</v>
       </c>
@@ -10714,8 +11024,9 @@
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="2"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" s="2"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>650</v>
       </c>
@@ -10737,8 +11048,9 @@
       <c r="G300" s="3">
         <v>700000</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" s="2"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>652</v>
       </c>
@@ -10760,8 +11072,9 @@
       <c r="G301" s="3">
         <v>440000</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" s="2"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>654</v>
       </c>
@@ -10781,8 +11094,9 @@
       <c r="G302" s="3">
         <v>150000</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302" s="2"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>657</v>
       </c>
@@ -10802,8 +11116,9 @@
       <c r="G303" s="3">
         <v>140000</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H303" s="2"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>660</v>
       </c>
@@ -10823,8 +11138,9 @@
       <c r="G304" s="3">
         <v>190000</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304" s="2"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>663</v>
       </c>
@@ -10844,8 +11160,9 @@
       <c r="G305" s="3">
         <v>195000</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H305" s="2"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>666</v>
       </c>
@@ -10865,8 +11182,9 @@
       <c r="G306" s="3">
         <v>215000</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306" s="2"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>667</v>
       </c>
@@ -10886,8 +11204,9 @@
       <c r="G307" s="3">
         <v>310000</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307" s="2"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>670</v>
       </c>
@@ -10905,8 +11224,9 @@
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="2"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" s="2"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>674</v>
       </c>
@@ -10926,6 +11246,7 @@
       <c r="G309" s="3">
         <v>400000</v>
       </c>
+      <c r="H309" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">

--- a/files/LISTA GENERAL SAMCOR.xlsx
+++ b/files/LISTA GENERAL SAMCOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\BuscadorPorMedidaJS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0914001-4F23-4AA2-AF72-39B4A9822500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D5DE5C-93E2-42A0-9BC1-34711DA0C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="686">
   <si>
     <t>1457012ROADT01</t>
   </si>
@@ -2091,6 +2091,9 @@
   </si>
   <si>
     <t>https://imgur.com/a/Nf82xjZ</t>
+  </si>
+  <si>
+    <t>https://www.samcor.cl/neumatico-15565r14-keter-kt277</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2187,7 +2190,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4576,7 +4578,7 @@
   <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4587,7 +4589,7 @@
     <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4612,7 +4614,7 @@
       <c r="G1" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>683</v>
       </c>
     </row>
@@ -4744,7 +4746,9 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">

--- a/files/LISTA GENERAL SAMCOR.xlsx
+++ b/files/LISTA GENERAL SAMCOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\BuscadorPorMedidaJS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D5DE5C-93E2-42A0-9BC1-34711DA0C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF98C64-30D6-4683-9224-A473886FF151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="685">
   <si>
     <t>1457012ROADT01</t>
   </si>
@@ -1107,9 +1107,6 @@
   </si>
   <si>
     <t>2156516CONTI100</t>
-  </si>
-  <si>
-    <t>SOLO 3</t>
   </si>
   <si>
     <t>2157015MIRAMR30</t>
@@ -2153,7 +2150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2176,11 +2173,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2190,11 +2200,158 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="214">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4256,6 +4413,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6FB7ECA-17E9-4756-80F6-6FB7E2D316B7}" name="Tabla1" displayName="Tabla1" ref="A1:H309" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A1:H309" xr:uid="{B6FB7ECA-17E9-4756-80F6-6FB7E2D316B7}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{21800753-A043-4FAA-984A-D37F02D4C4F9}" name="SKU"/>
+    <tableColumn id="2" xr3:uid="{16237503-7913-402D-B0C3-00E0872FE382}" name="MEDIDA" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3770DE0A-A984-4D30-8F33-F2FC709D9C9B}" name="MARCA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BFE7F0CA-0A7E-4D9E-A73F-D66471CF3FB1}" name="MODELO" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D247DC18-F16C-4042-BBFD-298909D2694F}" name="UNIDAD" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{5784DE88-C572-48DB-97E7-8DE8B624C011}" name="X2" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{464D2960-4199-459F-BDFB-A506784393EA}" name="X4" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{301967F0-F92B-46E7-80FA-C2A9F61E0701}" name="LINK" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4578,7 +4752,7 @@
   <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4587,35 +4761,36 @@
     <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4636,7 +4811,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4658,7 +4833,7 @@
       <c r="G3" s="3">
         <v>150000</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -4680,7 +4855,7 @@
       <c r="G4" s="3">
         <v>155000</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4702,7 +4877,7 @@
       <c r="G5" s="3">
         <v>200000</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -4726,7 +4901,7 @@
       <c r="G6" s="3">
         <v>125000</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -4746,8 +4921,8 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
-        <v>685</v>
+      <c r="H7" s="9" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4770,7 +4945,7 @@
       <c r="G8" s="3">
         <v>140000</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -4792,7 +4967,7 @@
       <c r="G9" s="3">
         <v>125000</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -4814,7 +4989,7 @@
       <c r="G10" s="3">
         <v>125000</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -4836,7 +5011,7 @@
       <c r="G11" s="3">
         <v>135000</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -4858,7 +5033,7 @@
       <c r="G12" s="3">
         <v>150000</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -4880,7 +5055,7 @@
       <c r="G13" s="3">
         <v>190000</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -4902,7 +5077,7 @@
       <c r="G14" s="3">
         <v>140000</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -4924,7 +5099,7 @@
       <c r="G15" s="3">
         <v>135000</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -4946,7 +5121,7 @@
       <c r="G16" s="3">
         <v>155000</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -4966,7 +5141,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -4986,7 +5161,7 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -5006,7 +5181,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -5026,7 +5201,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -5048,7 +5223,7 @@
       <c r="G21" s="3">
         <v>175000</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -5068,7 +5243,7 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -5086,7 +5261,7 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -5108,7 +5283,7 @@
       <c r="G24" s="3">
         <v>190000</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -5130,7 +5305,7 @@
       <c r="G25" s="3">
         <v>190000</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -5150,7 +5325,7 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -5170,7 +5345,7 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -5192,7 +5367,7 @@
       <c r="G28" s="3">
         <v>165000</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -5214,7 +5389,7 @@
       <c r="G29" s="3">
         <v>185000</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -5234,7 +5409,7 @@
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -5254,7 +5429,7 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5274,7 +5449,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -5294,7 +5469,7 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -5316,7 +5491,7 @@
       <c r="G34" s="3">
         <v>155000</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -5340,7 +5515,7 @@
       <c r="G35" s="3">
         <v>155000</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -5360,7 +5535,7 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -5382,8 +5557,8 @@
       <c r="G37" s="3">
         <v>265000</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>684</v>
+      <c r="H37" s="9" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -5406,7 +5581,7 @@
       <c r="G38" s="3">
         <v>220000</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -5428,7 +5603,7 @@
       <c r="G39" s="3">
         <v>195000</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
@@ -5450,7 +5625,7 @@
       <c r="G40" s="3">
         <v>180000</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -5470,7 +5645,7 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -5490,7 +5665,7 @@
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -5510,7 +5685,7 @@
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -5532,7 +5707,7 @@
       <c r="G44" s="3">
         <v>160000</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -5552,7 +5727,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
@@ -5574,7 +5749,7 @@
       <c r="G46" s="3">
         <v>175000</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -5594,7 +5769,7 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -5614,7 +5789,7 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -5634,7 +5809,7 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -5658,7 +5833,7 @@
       <c r="G50" s="3">
         <v>170000</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -5682,7 +5857,7 @@
       <c r="G51" s="3">
         <v>185000</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -5702,7 +5877,7 @@
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
@@ -5724,7 +5899,7 @@
       <c r="G53" s="3">
         <v>265000</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -5746,7 +5921,7 @@
       <c r="G54" s="3">
         <v>155000</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -5766,7 +5941,7 @@
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -5788,7 +5963,7 @@
       <c r="G56" s="3">
         <v>230000</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -5810,7 +5985,7 @@
       <c r="G57" s="3">
         <v>210000</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -5830,7 +6005,7 @@
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -5852,7 +6027,7 @@
       <c r="G59" s="3">
         <v>190000</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -5874,7 +6049,7 @@
       <c r="G60" s="3">
         <v>195000</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -5896,7 +6071,7 @@
       <c r="G61" s="3">
         <v>175000</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -5916,7 +6091,7 @@
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -5940,7 +6115,7 @@
       <c r="G63" s="3">
         <v>210000</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -5962,7 +6137,7 @@
       <c r="G64" s="3">
         <v>215000</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -5982,7 +6157,7 @@
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -6004,7 +6179,7 @@
       <c r="G66" s="3">
         <v>175000</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -6026,7 +6201,7 @@
       <c r="G67" s="3">
         <v>215000</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -6048,7 +6223,7 @@
       <c r="G68" s="3">
         <v>215000</v>
       </c>
-      <c r="H68" s="2"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -6070,7 +6245,7 @@
       <c r="G69" s="3">
         <v>290000</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
@@ -6092,7 +6267,7 @@
       <c r="G70" s="3">
         <v>215000</v>
       </c>
-      <c r="H70" s="2"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
@@ -6114,7 +6289,7 @@
       <c r="G71" s="3">
         <v>195000</v>
       </c>
-      <c r="H71" s="2"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -6136,7 +6311,7 @@
       <c r="G72" s="3">
         <v>180000</v>
       </c>
-      <c r="H72" s="2"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
@@ -6158,7 +6333,7 @@
       <c r="G73" s="3">
         <v>170000</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -6178,7 +6353,7 @@
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -6200,7 +6375,7 @@
       <c r="G75" s="3">
         <v>300000</v>
       </c>
-      <c r="H75" s="2"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -6222,7 +6397,7 @@
       <c r="G76" s="3">
         <v>270000</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -6244,7 +6419,7 @@
       <c r="G77" s="3">
         <v>210000</v>
       </c>
-      <c r="H77" s="2"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -6264,7 +6439,7 @@
         <v>140000</v>
       </c>
       <c r="G78" s="3"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -6286,7 +6461,7 @@
       <c r="G79" s="3">
         <v>290000</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
@@ -6308,7 +6483,7 @@
       <c r="G80" s="3">
         <v>175000</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
@@ -6328,7 +6503,7 @@
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="2"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -6348,7 +6523,7 @@
       <c r="G82" s="3">
         <v>350000</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -6368,7 +6543,7 @@
       <c r="G83" s="3">
         <v>340000</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
@@ -6390,7 +6565,7 @@
       <c r="G84" s="3">
         <v>185000</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
@@ -6412,7 +6587,7 @@
       <c r="G85" s="3">
         <v>250000</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -6434,7 +6609,7 @@
       <c r="G86" s="3">
         <v>420000</v>
       </c>
-      <c r="H86" s="2"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -6456,7 +6631,7 @@
       <c r="G87" s="3">
         <v>420000</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -6478,7 +6653,7 @@
       <c r="G88" s="3">
         <v>270000</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -6500,7 +6675,7 @@
       <c r="G89" s="3">
         <v>300000</v>
       </c>
-      <c r="H89" s="2"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
@@ -6522,7 +6697,7 @@
       <c r="G90" s="3">
         <v>230000</v>
       </c>
-      <c r="H90" s="2"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -6544,7 +6719,7 @@
       <c r="G91" s="3">
         <v>250000</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -6566,7 +6741,7 @@
       <c r="G92" s="3">
         <v>320000</v>
       </c>
-      <c r="H92" s="2"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -6588,7 +6763,7 @@
       <c r="G93" s="3">
         <v>210000</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -6610,7 +6785,7 @@
       <c r="G94" s="3">
         <v>195000</v>
       </c>
-      <c r="H94" s="2"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
@@ -6634,7 +6809,7 @@
       <c r="G95" s="3">
         <v>210000</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
@@ -6656,7 +6831,7 @@
       <c r="G96" s="3">
         <v>195000</v>
       </c>
-      <c r="H96" s="2"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
@@ -6680,7 +6855,7 @@
       <c r="G97" s="3">
         <v>210000</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -6702,7 +6877,7 @@
       <c r="G98" s="3">
         <v>230000</v>
       </c>
-      <c r="H98" s="2"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
@@ -6724,7 +6899,7 @@
       <c r="G99" s="3">
         <v>195000</v>
       </c>
-      <c r="H99" s="2"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -6746,7 +6921,7 @@
       <c r="G100" s="3">
         <v>195000</v>
       </c>
-      <c r="H100" s="2"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
@@ -6766,7 +6941,7 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="2"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -6786,7 +6961,7 @@
         <v>170000</v>
       </c>
       <c r="G102" s="3"/>
-      <c r="H102" s="2"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -6808,7 +6983,7 @@
       <c r="G103" s="3">
         <v>360000</v>
       </c>
-      <c r="H103" s="2"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
@@ -6830,7 +7005,7 @@
       <c r="G104" s="3">
         <v>350000</v>
       </c>
-      <c r="H104" s="2"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -6852,7 +7027,7 @@
       <c r="G105" s="3">
         <v>360000</v>
       </c>
-      <c r="H105" s="2"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
@@ -6874,7 +7049,7 @@
       <c r="G106" s="3">
         <v>240000</v>
       </c>
-      <c r="H106" s="2"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
@@ -6896,7 +7071,7 @@
       <c r="G107" s="3">
         <v>200000</v>
       </c>
-      <c r="H107" s="2"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -6916,7 +7091,7 @@
       <c r="G108" s="3">
         <v>380000</v>
       </c>
-      <c r="H108" s="2"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
@@ -6938,7 +7113,7 @@
       <c r="G109" s="3">
         <v>280000</v>
       </c>
-      <c r="H109" s="2"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
@@ -6960,7 +7135,7 @@
       <c r="G110" s="3">
         <v>200000</v>
       </c>
-      <c r="H110" s="2"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
@@ -6980,7 +7155,7 @@
         <v>130000</v>
       </c>
       <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -7002,7 +7177,7 @@
       <c r="G112" s="3">
         <v>200000</v>
       </c>
-      <c r="H112" s="2"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
@@ -7024,7 +7199,7 @@
       <c r="G113" s="3">
         <v>290000</v>
       </c>
-      <c r="H113" s="2"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
@@ -7046,7 +7221,7 @@
       <c r="G114" s="3">
         <v>230000</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -7066,7 +7241,7 @@
         <v>180000</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -7088,7 +7263,7 @@
       <c r="G116" s="3">
         <v>290000</v>
       </c>
-      <c r="H116" s="2"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
@@ -7110,7 +7285,7 @@
       <c r="G117" s="3">
         <v>270000</v>
       </c>
-      <c r="H117" s="2"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
@@ -7132,7 +7307,7 @@
       <c r="G118" s="3">
         <v>220000</v>
       </c>
-      <c r="H118" s="2"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
@@ -7154,7 +7329,7 @@
       <c r="G119" s="3">
         <v>290000</v>
       </c>
-      <c r="H119" s="2"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
@@ -7176,7 +7351,7 @@
       <c r="G120" s="3">
         <v>270000</v>
       </c>
-      <c r="H120" s="2"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -7196,7 +7371,7 @@
       <c r="G121" s="3">
         <v>500000</v>
       </c>
-      <c r="H121" s="2"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -7214,7 +7389,7 @@
         <v>180000</v>
       </c>
       <c r="G122" s="3"/>
-      <c r="H122" s="2"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -7234,7 +7409,7 @@
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
@@ -7256,7 +7431,7 @@
       <c r="G124" s="3">
         <v>300000</v>
       </c>
-      <c r="H124" s="2"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
@@ -7278,7 +7453,7 @@
       <c r="G125" s="3">
         <v>230000</v>
       </c>
-      <c r="H125" s="2"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
@@ -7298,7 +7473,7 @@
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="2"/>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
@@ -7320,7 +7495,7 @@
       <c r="G127" s="3">
         <v>240000</v>
       </c>
-      <c r="H127" s="2"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
@@ -7342,7 +7517,7 @@
       <c r="G128" s="3">
         <v>210000</v>
       </c>
-      <c r="H128" s="2"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
@@ -7364,7 +7539,7 @@
       <c r="G129" s="3">
         <v>215000</v>
       </c>
-      <c r="H129" s="2"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -7386,7 +7561,7 @@
       <c r="G130" s="3">
         <v>270000</v>
       </c>
-      <c r="H130" s="2"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
@@ -7408,7 +7583,7 @@
       <c r="G131" s="3">
         <v>270000</v>
       </c>
-      <c r="H131" s="2"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
@@ -7430,7 +7605,7 @@
       <c r="G132" s="3">
         <v>500000</v>
       </c>
-      <c r="H132" s="2"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
@@ -7450,7 +7625,7 @@
         <v>260000</v>
       </c>
       <c r="G133" s="3"/>
-      <c r="H133" s="2"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
@@ -7474,7 +7649,7 @@
       <c r="G134" s="3">
         <v>235000</v>
       </c>
-      <c r="H134" s="2"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
@@ -7496,7 +7671,7 @@
       <c r="G135" s="3">
         <v>500000</v>
       </c>
-      <c r="H135" s="2"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
@@ -7518,7 +7693,7 @@
       <c r="G136" s="3">
         <v>320000</v>
       </c>
-      <c r="H136" s="2"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -7540,7 +7715,7 @@
       <c r="G137" s="3">
         <v>240000</v>
       </c>
-      <c r="H137" s="2"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -7562,7 +7737,7 @@
       <c r="G138" s="3">
         <v>380000</v>
       </c>
-      <c r="H138" s="2"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
@@ -7584,7 +7759,7 @@
       <c r="G139" s="3">
         <v>230000</v>
       </c>
-      <c r="H139" s="2"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
@@ -7606,7 +7781,7 @@
       <c r="G140" s="3">
         <v>650000</v>
       </c>
-      <c r="H140" s="2"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
@@ -7626,7 +7801,7 @@
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="2"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
@@ -7648,7 +7823,7 @@
       <c r="G142" s="3">
         <v>290000</v>
       </c>
-      <c r="H142" s="2"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -7670,7 +7845,7 @@
       <c r="G143" s="3">
         <v>380000</v>
       </c>
-      <c r="H143" s="2"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
@@ -7692,7 +7867,7 @@
       <c r="G144" s="3">
         <v>230000</v>
       </c>
-      <c r="H144" s="2"/>
+      <c r="H144" s="9"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -7714,7 +7889,7 @@
       <c r="G145" s="3">
         <v>300000</v>
       </c>
-      <c r="H145" s="2"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
@@ -7736,7 +7911,7 @@
       <c r="G146" s="3">
         <v>260000</v>
       </c>
-      <c r="H146" s="2"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -7758,7 +7933,7 @@
       <c r="G147" s="3">
         <v>350000</v>
       </c>
-      <c r="H147" s="2"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
@@ -7780,7 +7955,7 @@
       <c r="G148" s="3">
         <v>450000</v>
       </c>
-      <c r="H148" s="2"/>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -7804,7 +7979,7 @@
       <c r="G149" s="3">
         <v>340000</v>
       </c>
-      <c r="H149" s="2"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
@@ -7826,7 +8001,7 @@
       <c r="G150" s="3">
         <v>240000</v>
       </c>
-      <c r="H150" s="2"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
@@ -7848,7 +8023,7 @@
       <c r="G151" s="3">
         <v>290000</v>
       </c>
-      <c r="H151" s="2"/>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
@@ -7866,18 +8041,16 @@
       <c r="E152" s="3">
         <v>120000</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>357</v>
-      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>17</v>
@@ -7892,20 +8065,20 @@
       <c r="G153" s="3">
         <v>270000</v>
       </c>
-      <c r="H153" s="2"/>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>359</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E154" s="3">
         <v>100000</v>
@@ -7914,20 +8087,20 @@
       <c r="G154" s="3">
         <v>400000</v>
       </c>
-      <c r="H154" s="2"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E155" s="3">
         <v>85000</v>
@@ -7936,20 +8109,20 @@
       <c r="G155" s="3">
         <v>320000</v>
       </c>
-      <c r="H155" s="2"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E156" s="3">
         <v>72000</v>
@@ -7958,20 +8131,20 @@
       <c r="G156" s="3">
         <v>280000</v>
       </c>
-      <c r="H156" s="2"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E157" s="3">
         <v>78000</v>
@@ -7982,34 +8155,34 @@
       <c r="G157" s="3">
         <v>290000</v>
       </c>
-      <c r="H157" s="2"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>368</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3">
         <v>230000</v>
       </c>
       <c r="G158" s="3"/>
-      <c r="H158" s="2"/>
+      <c r="H158" s="9"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>65</v>
@@ -8022,20 +8195,20 @@
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="2"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E160" s="3">
         <v>65000</v>
@@ -8044,14 +8217,14 @@
       <c r="G160" s="3">
         <v>250000</v>
       </c>
-      <c r="H160" s="2"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>21</v>
@@ -8066,20 +8239,20 @@
       <c r="G161" s="3">
         <v>290000</v>
       </c>
-      <c r="H161" s="2"/>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E162" s="3">
         <v>75000</v>
@@ -8088,20 +8261,20 @@
       <c r="G162" s="3">
         <v>290000</v>
       </c>
-      <c r="H162" s="2"/>
+      <c r="H162" s="9"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E163" s="3">
         <v>83000</v>
@@ -8110,14 +8283,14 @@
       <c r="G163" s="3">
         <v>320000</v>
       </c>
-      <c r="H163" s="2"/>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>215</v>
@@ -8132,64 +8305,64 @@
       <c r="G164" s="3">
         <v>500000</v>
       </c>
-      <c r="H164" s="2"/>
+      <c r="H164" s="9"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="E165" s="3">
         <v>95000</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H165" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>389</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="E166" s="3">
         <v>100000</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H166" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="H166" s="9"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>391</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3">
@@ -8198,20 +8371,20 @@
       <c r="G167" s="3">
         <v>400000</v>
       </c>
-      <c r="H167" s="2"/>
+      <c r="H167" s="9"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E168" s="3">
         <v>100000</v>
@@ -8220,20 +8393,20 @@
       <c r="G168" s="3">
         <v>380000</v>
       </c>
-      <c r="H168" s="2"/>
+      <c r="H168" s="9"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E169" s="3">
         <v>130000</v>
@@ -8242,14 +8415,14 @@
       <c r="G169" s="3">
         <v>500000</v>
       </c>
-      <c r="H169" s="2"/>
+      <c r="H169" s="9"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>2</v>
@@ -8264,14 +8437,14 @@
       <c r="G170" s="3">
         <v>260000</v>
       </c>
-      <c r="H170" s="2"/>
+      <c r="H170" s="9"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>251</v>
@@ -8286,20 +8459,20 @@
       <c r="G171" s="3">
         <v>750000</v>
       </c>
-      <c r="H171" s="2"/>
+      <c r="H171" s="9"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E172" s="3">
         <v>110000</v>
@@ -8308,40 +8481,40 @@
       <c r="G172" s="3">
         <v>400000</v>
       </c>
-      <c r="H172" s="2"/>
+      <c r="H172" s="9"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>405</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3">
         <v>200000</v>
       </c>
       <c r="G173" s="3"/>
-      <c r="H173" s="2"/>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E174" s="3">
         <v>100000</v>
@@ -8350,20 +8523,20 @@
       <c r="G174" s="3">
         <v>380000</v>
       </c>
-      <c r="H174" s="2"/>
+      <c r="H174" s="9"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E175" s="3">
         <v>110000</v>
@@ -8372,20 +8545,20 @@
       <c r="G175" s="3">
         <v>420000</v>
       </c>
-      <c r="H175" s="2"/>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E176" s="3">
         <v>58000</v>
@@ -8394,14 +8567,14 @@
       <c r="G176" s="3">
         <v>230000</v>
       </c>
-      <c r="H176" s="2"/>
+      <c r="H176" s="9"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>2</v>
@@ -8416,14 +8589,14 @@
       <c r="G177" s="3">
         <v>230000</v>
       </c>
-      <c r="H177" s="2"/>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>2</v>
@@ -8438,14 +8611,14 @@
       <c r="G178" s="3">
         <v>270000</v>
       </c>
-      <c r="H178" s="2"/>
+      <c r="H178" s="9"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>2</v>
@@ -8460,20 +8633,20 @@
       <c r="G179" s="3">
         <v>360000</v>
       </c>
-      <c r="H179" s="2"/>
+      <c r="H179" s="9"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E180" s="3">
         <v>140000</v>
@@ -8484,20 +8657,20 @@
       <c r="G180" s="3">
         <v>520000</v>
       </c>
-      <c r="H180" s="2"/>
+      <c r="H180" s="9"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E181" s="3">
         <v>120000</v>
@@ -8506,20 +8679,20 @@
       <c r="G181" s="3">
         <v>450000</v>
       </c>
-      <c r="H181" s="2"/>
+      <c r="H181" s="9"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>424</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="E182" s="3">
         <v>100000</v>
@@ -8528,20 +8701,20 @@
       <c r="G182" s="3">
         <v>380000</v>
       </c>
-      <c r="H182" s="2"/>
+      <c r="H182" s="9"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E183" s="3">
         <v>130000</v>
@@ -8550,14 +8723,14 @@
       <c r="G183" s="3">
         <v>500000</v>
       </c>
-      <c r="H183" s="2"/>
+      <c r="H183" s="9"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>2</v>
@@ -8572,20 +8745,20 @@
       <c r="G184" s="3">
         <v>260000</v>
       </c>
-      <c r="H184" s="2"/>
+      <c r="H184" s="9"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E185" s="3">
         <v>75000</v>
@@ -8594,74 +8767,74 @@
       <c r="G185" s="3">
         <v>280000</v>
       </c>
-      <c r="H185" s="2"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3">
         <v>650000</v>
       </c>
-      <c r="H186" s="2"/>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3">
         <v>450000</v>
       </c>
-      <c r="H187" s="2"/>
+      <c r="H187" s="9"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3">
         <v>200000</v>
       </c>
       <c r="G188" s="3"/>
-      <c r="H188" s="2"/>
+      <c r="H188" s="9"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>2</v>
@@ -8676,34 +8849,34 @@
       <c r="G189" s="3">
         <v>300000</v>
       </c>
-      <c r="H189" s="2"/>
+      <c r="H189" s="9"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3">
         <v>300000</v>
       </c>
       <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="H190" s="9"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>154</v>
@@ -8718,14 +8891,14 @@
       <c r="G191" s="3">
         <v>450000</v>
       </c>
-      <c r="H191" s="2"/>
+      <c r="H191" s="9"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>444</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>2</v>
@@ -8740,20 +8913,20 @@
       <c r="G192" s="3">
         <v>400000</v>
       </c>
-      <c r="H192" s="2"/>
+      <c r="H192" s="9"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E193" s="3">
         <v>90000</v>
@@ -8762,20 +8935,20 @@
       <c r="G193" s="3">
         <v>340000</v>
       </c>
-      <c r="H193" s="2"/>
+      <c r="H193" s="9"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194" s="3">
         <v>75000</v>
@@ -8784,20 +8957,20 @@
       <c r="G194" s="3">
         <v>280000</v>
       </c>
-      <c r="H194" s="2"/>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E195" s="3">
         <v>85000</v>
@@ -8808,20 +8981,20 @@
       <c r="G195" s="3">
         <v>320000</v>
       </c>
-      <c r="H195" s="2"/>
+      <c r="H195" s="9"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3">
@@ -8830,40 +9003,40 @@
       <c r="G196" s="3">
         <v>500000</v>
       </c>
-      <c r="H196" s="2"/>
+      <c r="H196" s="9"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>455</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3">
         <v>500000</v>
       </c>
-      <c r="H197" s="2"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E198" s="3">
         <v>90000</v>
@@ -8872,20 +9045,20 @@
       <c r="G198" s="3">
         <v>340000</v>
       </c>
-      <c r="H198" s="2"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E199" s="3">
         <v>85000</v>
@@ -8894,20 +9067,20 @@
       <c r="G199" s="3">
         <v>320000</v>
       </c>
-      <c r="H199" s="2"/>
+      <c r="H199" s="9"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E200" s="3">
         <v>75000</v>
@@ -8916,20 +9089,20 @@
       <c r="G200" s="3">
         <v>280000</v>
       </c>
-      <c r="H200" s="2"/>
+      <c r="H200" s="9"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E201" s="3">
         <v>85000</v>
@@ -8938,40 +9111,40 @@
       <c r="G201" s="3">
         <v>330000</v>
       </c>
-      <c r="H201" s="2"/>
+      <c r="H201" s="9"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
         <v>500000</v>
       </c>
-      <c r="H202" s="2"/>
+      <c r="H202" s="9"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E203" s="3">
         <v>85000</v>
@@ -8980,34 +9153,34 @@
       <c r="G203" s="3">
         <v>330000</v>
       </c>
-      <c r="H203" s="2"/>
+      <c r="H203" s="9"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
         <v>480000</v>
       </c>
-      <c r="H204" s="2"/>
+      <c r="H204" s="9"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>17</v>
@@ -9022,20 +9195,20 @@
       <c r="G205" s="3">
         <v>320000</v>
       </c>
-      <c r="H205" s="2"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E206" s="3">
         <v>75000</v>
@@ -9044,17 +9217,17 @@
       <c r="G206" s="3">
         <v>290000</v>
       </c>
-      <c r="H206" s="2"/>
+      <c r="H206" s="9"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>105</v>
@@ -9066,14 +9239,14 @@
       <c r="G207" s="3">
         <v>330000</v>
       </c>
-      <c r="H207" s="2"/>
+      <c r="H207" s="9"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>477</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>221</v>
@@ -9088,20 +9261,20 @@
       <c r="G208" s="3">
         <v>260000</v>
       </c>
-      <c r="H208" s="2"/>
+      <c r="H208" s="9"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3">
@@ -9110,34 +9283,34 @@
       <c r="G209" s="3">
         <v>480000</v>
       </c>
-      <c r="H209" s="2"/>
+      <c r="H209" s="9"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>481</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3">
         <v>450000</v>
       </c>
-      <c r="H210" s="2"/>
+      <c r="H210" s="9"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>485</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>65</v>
@@ -9152,14 +9325,14 @@
       <c r="G211" s="3">
         <v>350000</v>
       </c>
-      <c r="H211" s="2"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>2</v>
@@ -9176,14 +9349,14 @@
       <c r="G212" s="3">
         <v>270000</v>
       </c>
-      <c r="H212" s="2"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>2</v>
@@ -9198,20 +9371,20 @@
       <c r="G213" s="3">
         <v>300000</v>
       </c>
-      <c r="H213" s="2"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E214" s="3">
         <v>110000</v>
@@ -9220,20 +9393,20 @@
       <c r="G214" s="3">
         <v>420000</v>
       </c>
-      <c r="H214" s="2"/>
+      <c r="H214" s="9"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E215" s="3">
         <v>85000</v>
@@ -9242,40 +9415,40 @@
       <c r="G215" s="3">
         <v>320000</v>
       </c>
-      <c r="H215" s="2"/>
+      <c r="H215" s="9"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>495</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3">
         <v>750000</v>
       </c>
-      <c r="H216" s="2"/>
+      <c r="H216" s="9"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E217" s="3">
         <v>100000</v>
@@ -9284,20 +9457,20 @@
       <c r="G217" s="3">
         <v>420000</v>
       </c>
-      <c r="H217" s="2"/>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>498</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E218" s="3">
         <v>130000</v>
@@ -9306,34 +9479,34 @@
       <c r="G218" s="3">
         <v>500000</v>
       </c>
-      <c r="H218" s="2"/>
+      <c r="H218" s="9"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3">
         <v>700000</v>
       </c>
-      <c r="H219" s="2"/>
+      <c r="H219" s="9"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>2</v>
@@ -9348,34 +9521,34 @@
       <c r="G220" s="3">
         <v>250000</v>
       </c>
-      <c r="H220" s="2"/>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E221" s="3">
         <v>120000</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
-      <c r="H221" s="2"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>81</v>
@@ -9388,20 +9561,20 @@
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="2"/>
+      <c r="H222" s="9"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E223" s="3">
         <v>90000</v>
@@ -9410,20 +9583,20 @@
       <c r="G223" s="3">
         <v>340000</v>
       </c>
-      <c r="H223" s="2"/>
+      <c r="H223" s="9"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="3">
@@ -9432,34 +9605,34 @@
       <c r="G224" s="3">
         <v>550000</v>
       </c>
-      <c r="H224" s="2"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3">
         <v>550000</v>
       </c>
-      <c r="H225" s="2"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>251</v>
@@ -9474,14 +9647,14 @@
       <c r="G226" s="3">
         <v>500000</v>
       </c>
-      <c r="H226" s="2"/>
+      <c r="H226" s="9"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>154</v>
@@ -9496,20 +9669,20 @@
       <c r="G227" s="3">
         <v>340000</v>
       </c>
-      <c r="H227" s="2"/>
+      <c r="H227" s="9"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E228" s="3">
         <v>90000</v>
@@ -9518,80 +9691,80 @@
       <c r="G228" s="3">
         <v>350000</v>
       </c>
-      <c r="H228" s="2"/>
+      <c r="H228" s="9"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E229" s="3">
         <v>80000</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
+      <c r="H229" s="9"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3">
         <v>550000</v>
       </c>
-      <c r="H230" s="2"/>
+      <c r="H230" s="9"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E231" s="3">
         <v>80000</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E232" s="3">
         <v>130000</v>
@@ -9600,14 +9773,14 @@
       <c r="G232" s="3">
         <v>500000</v>
       </c>
-      <c r="H232" s="2"/>
+      <c r="H232" s="9"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>39</v>
@@ -9622,14 +9795,14 @@
       <c r="G233" s="3">
         <v>390000</v>
       </c>
-      <c r="H233" s="2"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>39</v>
@@ -9644,74 +9817,74 @@
       <c r="G234" s="3">
         <v>350000</v>
       </c>
-      <c r="H234" s="2"/>
+      <c r="H234" s="9"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3">
         <v>200000</v>
       </c>
       <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
+      <c r="H235" s="9"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="C236" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="E236" s="3">
         <v>110000</v>
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
+      <c r="H236" s="9"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E237" s="3">
         <v>140000</v>
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>2</v>
@@ -9726,14 +9899,14 @@
       <c r="G238" s="3">
         <v>300000</v>
       </c>
-      <c r="H238" s="2"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>2</v>
@@ -9748,20 +9921,20 @@
       <c r="G239" s="3">
         <v>350000</v>
       </c>
-      <c r="H239" s="2"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E240" s="3">
         <v>140000</v>
@@ -9770,14 +9943,14 @@
       <c r="G240" s="3">
         <v>540000</v>
       </c>
-      <c r="H240" s="2"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>2</v>
@@ -9792,14 +9965,14 @@
       <c r="G241" s="3">
         <v>460000</v>
       </c>
-      <c r="H241" s="2"/>
+      <c r="H241" s="9"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>2</v>
@@ -9814,20 +9987,20 @@
       <c r="G242" s="3">
         <v>330000</v>
       </c>
-      <c r="H242" s="2"/>
+      <c r="H242" s="9"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E243" s="3">
         <v>140000</v>
@@ -9838,14 +10011,14 @@
       <c r="G243" s="3">
         <v>520000</v>
       </c>
-      <c r="H243" s="2"/>
+      <c r="H243" s="9"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -9860,14 +10033,14 @@
       <c r="G244" s="3">
         <v>350000</v>
       </c>
-      <c r="H244" s="2"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>546</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>251</v>
@@ -9880,60 +10053,60 @@
       <c r="G245" s="3">
         <v>750000</v>
       </c>
-      <c r="H245" s="2"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>548</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3">
         <v>750000</v>
       </c>
-      <c r="H246" s="2"/>
+      <c r="H246" s="9"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>551</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3">
         <v>240000</v>
       </c>
       <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
+      <c r="H247" s="9"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E248" s="3">
         <v>120000</v>
@@ -9942,20 +10115,20 @@
       <c r="G248" s="3">
         <v>450000</v>
       </c>
-      <c r="H248" s="2"/>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E249" s="3">
         <v>90000</v>
@@ -9964,40 +10137,40 @@
       <c r="G249" s="3">
         <v>350000</v>
       </c>
-      <c r="H249" s="2"/>
+      <c r="H249" s="9"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E250" s="3">
         <v>100000</v>
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
-      <c r="H250" s="2"/>
+      <c r="H250" s="9"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E251" s="3">
         <v>90000</v>
@@ -10006,34 +10179,34 @@
       <c r="G251" s="3">
         <v>350000</v>
       </c>
-      <c r="H251" s="2"/>
+      <c r="H251" s="9"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3">
         <v>170000</v>
       </c>
       <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>39</v>
@@ -10048,20 +10221,20 @@
       <c r="G253" s="3">
         <v>390000</v>
       </c>
-      <c r="H253" s="2"/>
+      <c r="H253" s="9"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>563</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="E254" s="3">
         <v>80000</v>
@@ -10070,40 +10243,40 @@
       <c r="G254" s="3">
         <v>280000</v>
       </c>
-      <c r="H254" s="2"/>
+      <c r="H254" s="9"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E255" s="3">
         <v>100000</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
+      <c r="H255" s="9"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E256" s="3">
         <v>90000</v>
@@ -10112,14 +10285,14 @@
       <c r="G256" s="3">
         <v>350000</v>
       </c>
-      <c r="H256" s="2"/>
+      <c r="H256" s="9"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>39</v>
@@ -10136,37 +10309,37 @@
       <c r="G257" s="3">
         <v>480000</v>
       </c>
-      <c r="H257" s="2"/>
+      <c r="H257" s="9"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3">
         <v>250000</v>
       </c>
       <c r="G258" s="3"/>
-      <c r="H258" s="2"/>
+      <c r="H258" s="9"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>284</v>
@@ -10178,54 +10351,54 @@
       <c r="G259" s="3">
         <v>500000</v>
       </c>
-      <c r="H259" s="2"/>
+      <c r="H259" s="9"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E260" s="3">
         <v>110000</v>
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
-      <c r="H260" s="2"/>
+      <c r="H260" s="9"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3">
         <v>750000</v>
       </c>
-      <c r="H261" s="2"/>
+      <c r="H261" s="9"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>2</v>
@@ -10240,34 +10413,34 @@
       <c r="G262" s="3">
         <v>450000</v>
       </c>
-      <c r="H262" s="2"/>
+      <c r="H262" s="9"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3">
         <v>750000</v>
       </c>
-      <c r="H263" s="2"/>
+      <c r="H263" s="9"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>2</v>
@@ -10282,34 +10455,34 @@
       <c r="G264" s="3">
         <v>380000</v>
       </c>
-      <c r="H264" s="2"/>
+      <c r="H264" s="9"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>582</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3">
         <v>400000</v>
       </c>
-      <c r="H265" s="2"/>
+      <c r="H265" s="9"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>2</v>
@@ -10322,20 +10495,20 @@
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
-      <c r="H266" s="2"/>
+      <c r="H266" s="9"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E267" s="3">
         <v>90000</v>
@@ -10344,14 +10517,14 @@
       <c r="G267" s="3">
         <v>350000</v>
       </c>
-      <c r="H267" s="2"/>
+      <c r="H267" s="9"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>39</v>
@@ -10366,34 +10539,34 @@
       <c r="G268" s="3">
         <v>410000</v>
       </c>
-      <c r="H268" s="2"/>
+      <c r="H268" s="9"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
+        <v>590</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3">
         <v>1000000</v>
       </c>
-      <c r="H269" s="2"/>
+      <c r="H269" s="9"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>39</v>
@@ -10408,20 +10581,20 @@
       <c r="G270" s="3">
         <v>470000</v>
       </c>
-      <c r="H270" s="2"/>
+      <c r="H270" s="9"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E271" s="3">
         <v>150000</v>
@@ -10430,14 +10603,14 @@
       <c r="G271" s="3">
         <v>580000</v>
       </c>
-      <c r="H271" s="2"/>
+      <c r="H271" s="9"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>221</v>
@@ -10452,20 +10625,20 @@
       <c r="G272" s="3">
         <v>700000</v>
       </c>
-      <c r="H272" s="2"/>
+      <c r="H272" s="9"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E273" s="3">
         <v>200000</v>
@@ -10474,14 +10647,14 @@
       <c r="G273" s="3">
         <v>700000</v>
       </c>
-      <c r="H273" s="2"/>
+      <c r="H273" s="9"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>39</v>
@@ -10496,14 +10669,14 @@
       <c r="G274" s="3">
         <v>470000</v>
       </c>
-      <c r="H274" s="2"/>
+      <c r="H274" s="9"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>154</v>
@@ -10518,20 +10691,20 @@
       <c r="G275" s="3">
         <v>500000</v>
       </c>
-      <c r="H275" s="2"/>
+      <c r="H275" s="9"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E276" s="3">
         <v>200000</v>
@@ -10540,32 +10713,32 @@
       <c r="G276" s="3">
         <v>800000</v>
       </c>
-      <c r="H276" s="2"/>
+      <c r="H276" s="9"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
-      <c r="H277" s="2"/>
+      <c r="H277" s="9"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>39</v>
@@ -10576,20 +10749,20 @@
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
-      <c r="H278" s="2"/>
+      <c r="H278" s="9"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>608</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="C279" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D279" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="E279" s="3">
         <v>120000</v>
@@ -10600,14 +10773,14 @@
       <c r="G279" s="3">
         <v>400000</v>
       </c>
-      <c r="H279" s="2"/>
+      <c r="H279" s="9"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>39</v>
@@ -10622,14 +10795,14 @@
       <c r="G280" s="3">
         <v>430000</v>
       </c>
-      <c r="H280" s="2"/>
+      <c r="H280" s="9"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>154</v>
@@ -10644,14 +10817,14 @@
       <c r="G281" s="3">
         <v>540000</v>
       </c>
-      <c r="H281" s="2"/>
+      <c r="H281" s="9"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>39</v>
@@ -10666,20 +10839,20 @@
       <c r="G282" s="3">
         <v>500000</v>
       </c>
-      <c r="H282" s="2"/>
+      <c r="H282" s="9"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E283" s="3">
         <v>110000</v>
@@ -10688,14 +10861,14 @@
       <c r="G283" s="3">
         <v>430000</v>
       </c>
-      <c r="H283" s="2"/>
+      <c r="H283" s="9"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>39</v>
@@ -10710,20 +10883,20 @@
       <c r="G284" s="3">
         <v>480000</v>
       </c>
-      <c r="H284" s="2"/>
+      <c r="H284" s="9"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E285" s="3">
         <v>150000</v>
@@ -10732,14 +10905,14 @@
       <c r="G285" s="3">
         <v>600000</v>
       </c>
-      <c r="H285" s="2"/>
+      <c r="H285" s="9"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
+        <v>620</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>283</v>
@@ -10752,14 +10925,14 @@
         <v>140000</v>
       </c>
       <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
+      <c r="H286" s="9"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>2</v>
@@ -10774,34 +10947,34 @@
       <c r="G287" s="3">
         <v>460000</v>
       </c>
-      <c r="H287" s="2"/>
+      <c r="H287" s="9"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
+        <v>624</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E288" s="3"/>
       <c r="F288" s="3">
         <v>450000</v>
       </c>
       <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
+      <c r="H288" s="9"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>2</v>
@@ -10816,14 +10989,14 @@
       <c r="G289" s="3">
         <v>500000</v>
       </c>
-      <c r="H289" s="2"/>
+      <c r="H289" s="9"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>39</v>
@@ -10838,34 +11011,34 @@
       <c r="G290" s="3">
         <v>580000</v>
       </c>
-      <c r="H290" s="2"/>
+      <c r="H290" s="9"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E291" s="3">
         <v>150000</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
-      <c r="H291" s="2"/>
+      <c r="H291" s="9"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>154</v>
@@ -10880,14 +11053,14 @@
       <c r="G292" s="3">
         <v>750000</v>
       </c>
-      <c r="H292" s="2"/>
+      <c r="H292" s="9"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>39</v>
@@ -10902,14 +11075,14 @@
       <c r="G293" s="3">
         <v>600000</v>
       </c>
-      <c r="H293" s="2"/>
+      <c r="H293" s="9"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>39</v>
@@ -10924,14 +11097,14 @@
       <c r="G294" s="3">
         <v>600000</v>
       </c>
-      <c r="H294" s="2"/>
+      <c r="H294" s="9"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>39</v>
@@ -10946,14 +11119,14 @@
       <c r="G295" s="3">
         <v>600000</v>
       </c>
-      <c r="H295" s="2"/>
+      <c r="H295" s="9"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>39</v>
@@ -10968,54 +11141,54 @@
       <c r="G296" s="3">
         <v>600000</v>
       </c>
-      <c r="H296" s="2"/>
+      <c r="H296" s="9"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E297" s="3">
         <v>135000</v>
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
-      <c r="H297" s="2"/>
+      <c r="H297" s="9"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="D298" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="E298" s="3">
         <v>140000</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
-      <c r="H298" s="2"/>
+      <c r="H298" s="9"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>2</v>
@@ -11028,14 +11201,14 @@
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
+      <c r="H299" s="9"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>39</v>
@@ -11052,14 +11225,14 @@
       <c r="G300" s="3">
         <v>700000</v>
       </c>
-      <c r="H300" s="2"/>
+      <c r="H300" s="9"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>39</v>
@@ -11076,17 +11249,17 @@
       <c r="G301" s="3">
         <v>440000</v>
       </c>
-      <c r="H301" s="2"/>
+      <c r="H301" s="9"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="C302" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>105</v>
@@ -11098,20 +11271,20 @@
       <c r="G302" s="3">
         <v>150000</v>
       </c>
-      <c r="H302" s="2"/>
+      <c r="H302" s="9"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E303" s="3">
         <v>37000</v>
@@ -11120,17 +11293,17 @@
       <c r="G303" s="3">
         <v>140000</v>
       </c>
-      <c r="H303" s="2"/>
+      <c r="H303" s="9"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="C304" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>105</v>
@@ -11142,20 +11315,20 @@
       <c r="G304" s="3">
         <v>190000</v>
       </c>
-      <c r="H304" s="2"/>
+      <c r="H304" s="9"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E305" s="3">
         <v>50000</v>
@@ -11164,20 +11337,20 @@
       <c r="G305" s="3">
         <v>195000</v>
       </c>
-      <c r="H305" s="2"/>
+      <c r="H305" s="9"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E306" s="3">
         <v>55000</v>
@@ -11186,20 +11359,20 @@
       <c r="G306" s="3">
         <v>215000</v>
       </c>
-      <c r="H306" s="2"/>
+      <c r="H306" s="9"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
+        <v>666</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E307" s="3">
         <v>80000</v>
@@ -11208,40 +11381,40 @@
       <c r="G307" s="3">
         <v>310000</v>
       </c>
-      <c r="H307" s="2"/>
+      <c r="H307" s="9"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
+        <v>669</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="C308" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="D308" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D308" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="E308" s="3">
         <v>95000</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
+      <c r="H308" s="9"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
+        <v>673</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>675</v>
-      </c>
       <c r="C309" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D309" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="E309" s="3">
         <v>105000</v>
@@ -11250,624 +11423,627 @@
       <c r="G309" s="3">
         <v>400000</v>
       </c>
-      <c r="H309" s="2"/>
+      <c r="H309" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="204" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="203" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="202" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="201" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="duplicateValues" dxfId="200" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="199" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="198" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="197" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="196" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="195" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="194" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="193" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="192" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="191" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="190" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="189" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="188" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="187" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="186" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="185" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25 A27">
-    <cfRule type="duplicateValues" dxfId="184" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="183" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="182" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="181" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="180" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="179" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="178" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="177" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="176" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="175" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="174" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="173" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="172" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="171" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="170" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="169" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="168" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="167" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="166" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="165" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="164" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="163" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="162" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="161" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="160" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="159" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="158" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="157" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="156" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="155" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="154" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="153" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="152" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="151" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="150" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="149" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="148" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="147" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="146" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="145" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="144" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="143" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="142" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="141" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="140" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="139" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="138" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="137" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" dxfId="136" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="135" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="134" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="133" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97">
-    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="131" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="130" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101">
-    <cfRule type="duplicateValues" dxfId="129" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="128" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106">
-    <cfRule type="duplicateValues" dxfId="127" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="126" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="125" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" dxfId="124" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="123" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="122" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="121" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="120" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" dxfId="118" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="117" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="116" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="115" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="114" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" dxfId="113" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="111" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="110" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="109" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="108" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A136">
-    <cfRule type="duplicateValues" dxfId="107" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A139">
-    <cfRule type="duplicateValues" dxfId="106" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140">
-    <cfRule type="duplicateValues" dxfId="105" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="104" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="duplicateValues" dxfId="103" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="102" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="101" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" dxfId="100" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="99" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="98" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="97" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" dxfId="96" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" dxfId="95" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" dxfId="94" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156">
-    <cfRule type="duplicateValues" dxfId="93" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159">
-    <cfRule type="duplicateValues" dxfId="92" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" dxfId="91" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" dxfId="90" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="89" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="88" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A168">
-    <cfRule type="duplicateValues" dxfId="87" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="duplicateValues" dxfId="86" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171:A172">
-    <cfRule type="duplicateValues" dxfId="84" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" dxfId="83" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="82" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="duplicateValues" dxfId="81" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177">
-    <cfRule type="duplicateValues" dxfId="80" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" dxfId="79" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179:A180">
-    <cfRule type="duplicateValues" dxfId="78" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A181">
-    <cfRule type="duplicateValues" dxfId="77" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="76" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185">
-    <cfRule type="duplicateValues" dxfId="75" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="72" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" dxfId="71" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:A196">
-    <cfRule type="duplicateValues" dxfId="70" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="69" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199">
-    <cfRule type="duplicateValues" dxfId="68" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A200">
-    <cfRule type="duplicateValues" dxfId="67" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="duplicateValues" dxfId="66" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A203">
-    <cfRule type="duplicateValues" dxfId="65" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="duplicateValues" dxfId="64" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="duplicateValues" dxfId="63" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="duplicateValues" dxfId="62" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A212">
-    <cfRule type="duplicateValues" dxfId="61" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213">
-    <cfRule type="duplicateValues" dxfId="60" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A214">
-    <cfRule type="duplicateValues" dxfId="59" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="58" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A220">
-    <cfRule type="duplicateValues" dxfId="57" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="duplicateValues" dxfId="56" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="55" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="duplicateValues" dxfId="54" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A227">
-    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A228">
-    <cfRule type="duplicateValues" dxfId="52" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230">
-    <cfRule type="duplicateValues" dxfId="50" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="duplicateValues" dxfId="48" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="duplicateValues" dxfId="47" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" dxfId="46" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A238">
-    <cfRule type="duplicateValues" dxfId="45" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239">
-    <cfRule type="duplicateValues" dxfId="44" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A240">
-    <cfRule type="duplicateValues" dxfId="43" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="42" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="duplicateValues" dxfId="41" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="duplicateValues" dxfId="40" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="duplicateValues" dxfId="38" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A250">
-    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251">
-    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="duplicateValues" dxfId="34" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255">
-    <cfRule type="duplicateValues" dxfId="33" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256">
-    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259">
-    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A260">
-    <cfRule type="duplicateValues" dxfId="30" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A262:A263">
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" dxfId="25" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="19" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A278">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A282">
-    <cfRule type="duplicateValues" dxfId="14" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283">
-    <cfRule type="duplicateValues" dxfId="13" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284">
-    <cfRule type="duplicateValues" dxfId="12" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="11" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="10" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A291">
-    <cfRule type="duplicateValues" dxfId="9" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293">
-    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294">
-    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295">
-    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A296">
-    <cfRule type="duplicateValues" dxfId="4" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A297">
-    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298">
-    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300:A301">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>